--- a/data/mall-cloud-alibaba/member-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/member-common_structure.xlsx
@@ -615,108 +615,108 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>commentGrowthPoint</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>priviledgeSignIn</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>priviledgeFreeFreight</t>
+  </si>
+  <si>
+    <t>priviledgePromotion</t>
+  </si>
+  <si>
+    <t>priviledgeComment</t>
+  </si>
+  <si>
+    <t>growthPoint</t>
+  </si>
+  <si>
+    <t>freeFreightPoint</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>priviledgeMemberPrice</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>priviledgeBirthday</t>
+  </si>
+  <si>
     <t>defaultStatus</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>priviledgeFreeFreight</t>
-  </si>
-  <si>
-    <t>priviledgeMemberPrice</t>
-  </si>
-  <si>
-    <t>priviledgeComment</t>
-  </si>
-  <si>
-    <t>priviledgeSignIn</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>freeFreightPoint</t>
-  </si>
-  <si>
-    <t>commentGrowthPoint</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>growthPoint</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>priviledgeBirthday</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>priviledgePromotion</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>historyIntegration</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>luckeyCount</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>memberLevelId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>personalizedSignature</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>integration</t>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>sourceType</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>memberLevelId</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>historyIntegration</t>
-  </si>
-  <si>
-    <t>luckeyCount</t>
-  </si>
-  <si>
     <t>tagId</t>
   </si>
   <si>
@@ -726,33 +726,33 @@
     <t>productCategoryId</t>
   </si>
   <si>
+    <t>useUnit</t>
+  </si>
+  <si>
+    <t>deductionPerAmount</t>
+  </si>
+  <si>
     <t>maxPercentPerOrder</t>
   </si>
   <si>
     <t>couponStatus</t>
   </si>
   <si>
-    <t>deductionPerAmount</t>
-  </si>
-  <si>
-    <t>useUnit</t>
+    <t>postCode</t>
   </si>
   <si>
     <t>detailAddress</t>
   </si>
   <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
     <t>province</t>
   </si>
   <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
-    <t>postCode</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
@@ -768,18 +768,18 @@
     <t>consumePerPoint</t>
   </si>
   <si>
+    <t>continueSignDay</t>
+  </si>
+  <si>
     <t>maxPointPerOrder</t>
   </si>
   <si>
-    <t>continueSignDay</t>
+    <t>continueSignPoint</t>
   </si>
   <si>
     <t>lowOrderAmount</t>
   </si>
   <si>
-    <t>continueSignPoint</t>
-  </si>
-  <si>
     <t>finishOrderCount</t>
   </si>
   <si>
@@ -789,43 +789,43 @@
     <t>collectTopicCount</t>
   </si>
   <si>
+    <t>commentCount</t>
+  </si>
+  <si>
     <t>recentOrderTime</t>
   </si>
   <si>
+    <t>consumeAmount</t>
+  </si>
+  <si>
+    <t>collectCommentCount</t>
+  </si>
+  <si>
+    <t>couponCount</t>
+  </si>
+  <si>
+    <t>orderCount</t>
+  </si>
+  <si>
+    <t>collectSubjectCount</t>
+  </si>
+  <si>
+    <t>loginCount</t>
+  </si>
+  <si>
+    <t>collectProductCount</t>
+  </si>
+  <si>
+    <t>fansCount</t>
+  </si>
+  <si>
+    <t>attendCount</t>
+  </si>
+  <si>
     <t>returnOrderCount</t>
   </si>
   <si>
-    <t>collectSubjectCount</t>
-  </si>
-  <si>
     <t>inviteFriendCount</t>
-  </si>
-  <si>
-    <t>attendCount</t>
-  </si>
-  <si>
-    <t>consumeAmount</t>
-  </si>
-  <si>
-    <t>couponCount</t>
-  </si>
-  <si>
-    <t>collectProductCount</t>
-  </si>
-  <si>
-    <t>commentCount</t>
-  </si>
-  <si>
-    <t>collectCommentCount</t>
-  </si>
-  <si>
-    <t>orderCount</t>
-  </si>
-  <si>
-    <t>fansCount</t>
-  </si>
-  <si>
-    <t>loginCount</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -8164,7 +8164,7 @@
         <v>198</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -8206,7 +8206,7 @@
         <v>198</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -8220,7 +8220,7 @@
         <v>198</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -8234,7 +8234,7 @@
         <v>198</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -8262,7 +8262,7 @@
         <v>198</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -8270,13 +8270,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -8284,13 +8284,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -8298,13 +8298,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>211</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -8360,7 +8360,7 @@
         <v>198</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -8374,7 +8374,7 @@
         <v>198</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -8382,13 +8382,13 @@
         <v>54</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>25</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -8396,13 +8396,13 @@
         <v>54</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -8410,7 +8410,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>198</v>
@@ -8424,7 +8424,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>198</v>
@@ -8438,13 +8438,13 @@
         <v>54</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -8452,13 +8452,13 @@
         <v>54</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -8466,7 +8466,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>198</v>
@@ -8480,7 +8480,7 @@
         <v>54</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>198</v>
@@ -8494,13 +8494,13 @@
         <v>54</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -8508,13 +8508,13 @@
         <v>54</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -8522,13 +8522,13 @@
         <v>54</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -8536,13 +8536,13 @@
         <v>54</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -8550,7 +8550,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>198</v>
@@ -8564,13 +8564,13 @@
         <v>54</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -8598,7 +8598,7 @@
         <v>198</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -8606,13 +8606,13 @@
         <v>93</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -8620,13 +8620,13 @@
         <v>93</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -8634,7 +8634,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>198</v>
@@ -8648,7 +8648,7 @@
         <v>93</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>198</v>
@@ -8662,13 +8662,13 @@
         <v>99</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>198</v>
@@ -8690,7 +8690,7 @@
         <v>99</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>198</v>
@@ -8704,13 +8704,13 @@
         <v>99</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44">
@@ -8718,7 +8718,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>198</v>
@@ -8788,13 +8788,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50">
@@ -8802,13 +8802,13 @@
         <v>119</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -8816,13 +8816,13 @@
         <v>119</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -8830,13 +8830,13 @@
         <v>119</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -8844,7 +8844,7 @@
         <v>119</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>198</v>
@@ -8858,13 +8858,13 @@
         <v>119</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55">
@@ -8872,7 +8872,7 @@
         <v>119</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>198</v>
@@ -8886,13 +8886,13 @@
         <v>119</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -8900,13 +8900,13 @@
         <v>119</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -8914,7 +8914,7 @@
         <v>119</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>198</v>
@@ -8928,7 +8928,7 @@
         <v>119</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>198</v>
@@ -8956,13 +8956,13 @@
         <v>131</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -8970,13 +8970,13 @@
         <v>131</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -8984,7 +8984,7 @@
         <v>131</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>198</v>
@@ -8998,13 +8998,13 @@
         <v>131</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -9012,13 +9012,13 @@
         <v>131</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -9026,13 +9026,13 @@
         <v>131</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -9040,13 +9040,13 @@
         <v>131</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
@@ -9054,13 +9054,13 @@
         <v>131</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -9068,13 +9068,13 @@
         <v>137</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>211</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -9082,13 +9082,13 @@
         <v>137</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -9096,13 +9096,13 @@
         <v>137</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
@@ -9110,13 +9110,13 @@
         <v>137</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -9124,13 +9124,13 @@
         <v>137</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -9152,13 +9152,13 @@
         <v>143</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>17</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76">
@@ -9166,13 +9166,13 @@
         <v>143</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -9180,13 +9180,13 @@
         <v>143</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -9194,7 +9194,7 @@
         <v>143</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>198</v>
@@ -9208,13 +9208,13 @@
         <v>143</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -9222,13 +9222,13 @@
         <v>143</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>211</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -9236,7 +9236,7 @@
         <v>143</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>198</v>
@@ -9250,13 +9250,13 @@
         <v>143</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -9264,7 +9264,7 @@
         <v>155</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>198</v>
@@ -9278,7 +9278,7 @@
         <v>155</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>198</v>
@@ -9306,13 +9306,13 @@
         <v>155</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>17</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -9320,13 +9320,13 @@
         <v>155</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>211</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -9348,13 +9348,13 @@
         <v>161</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>66</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -9362,7 +9362,7 @@
         <v>161</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>198</v>
@@ -9376,13 +9376,13 @@
         <v>161</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
@@ -9390,13 +9390,13 @@
         <v>161</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -9404,7 +9404,7 @@
         <v>161</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>198</v>
@@ -9418,13 +9418,13 @@
         <v>161</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -9438,7 +9438,7 @@
         <v>198</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -9460,7 +9460,7 @@
         <v>161</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>198</v>
@@ -9474,13 +9474,13 @@
         <v>161</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -9488,7 +9488,7 @@
         <v>161</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>198</v>
@@ -9502,7 +9502,7 @@
         <v>161</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>198</v>
@@ -9516,13 +9516,13 @@
         <v>161</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>198</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>211</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
